--- a/data/trans_camb/P1401-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1401-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2302746477084092</v>
+        <v>-0.2348412440640955</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.504696711317739</v>
+        <v>1.722260800481907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.173265269401027</v>
+        <v>-1.051069104111047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.471899021354941</v>
+        <v>-1.317634376543684</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2058283029596683</v>
+        <v>-0.2043066543150421</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7050511912432578</v>
+        <v>0.8485758692692389</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.852597969833574</v>
+        <v>1.827749582051572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.630488658496048</v>
+        <v>4.612167160145019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.006233321329708</v>
+        <v>3.147442328818433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.789419446248148</v>
+        <v>1.83894797355546</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.120026041838716</v>
+        <v>2.013935972898201</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.828953933824778</v>
+        <v>2.925183455879425</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>2.776622699303174</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12.10585950785435</v>
+        <v>12.10585950785434</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5889551722994629</v>
@@ -715,16 +715,16 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.5736435256181642</v>
+        <v>-0.5069088918901414</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5448180031773534</v>
+        <v>-0.5346784707157167</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3094811269902737</v>
+        <v>-0.2998413568440916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2835045770697536</v>
+        <v>0.5246397045790985</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>4.857006808470308</v>
+        <v>4.940612774777826</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.817927249283119</v>
+        <v>3.468075772494489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.419647808949248</v>
+        <v>6.305945754477286</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.915499992905254</v>
+        <v>8.743575587939688</v>
       </c>
     </row>
     <row r="10">
@@ -764,7 +764,7 @@
         <v>-0.2797394355773686</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.280814566990961</v>
+        <v>1.28081456699096</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.8789748706491354</v>
@@ -776,7 +776,7 @@
         <v>-0.5398120430778308</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7440387372709609</v>
+        <v>0.7440387372709603</v>
       </c>
     </row>
     <row r="11">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.548001493422743</v>
+        <v>-1.626196732692752</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2814110017679858</v>
+        <v>-0.4501515048660094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.937910535455883</v>
+        <v>-2.910528475496081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.172360257835804</v>
+        <v>-2.53273400528716</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.696838023462307</v>
+        <v>-1.63814912998903</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5324347088839326</v>
+        <v>-0.647108210444772</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9778456729192073</v>
+        <v>0.9229211073896315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.855757270795522</v>
+        <v>2.785054225050175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.087256504325566</v>
+        <v>1.081758499711032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.724999781680873</v>
+        <v>1.593817568535338</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6508257138826267</v>
+        <v>0.6605910459552813</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.973133101463732</v>
+        <v>1.842900692094068</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>-0.2821572910860941</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.291884956655769</v>
+        <v>1.291884956655768</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.5046631859262748</v>
@@ -854,7 +854,7 @@
         <v>-0.4069372194410834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5608934790990664</v>
+        <v>0.5608934790990658</v>
       </c>
     </row>
     <row r="14">
@@ -868,17 +868,17 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2923304809326872</v>
+        <v>-0.3741698170838648</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.6606842359727739</v>
+        <v>-0.7305187651884171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8499471229701816</v>
+        <v>-0.8529285237659737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3078605596640548</v>
+        <v>-0.3189577680106152</v>
       </c>
     </row>
     <row r="15">
@@ -889,20 +889,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.58964606415672</v>
+        <v>3.468364395401436</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8.376029240072089</v>
+        <v>8.790085018219219</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2.861679099281571</v>
+        <v>2.396484690941816</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.337012962980309</v>
+        <v>1.44851253562459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.904358264970335</v>
+        <v>2.605254846702866</v>
       </c>
     </row>
     <row r="16">
@@ -920,7 +920,7 @@
         <v>-1.068964236964669</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.3556166292517204</v>
+        <v>0.3556166292517201</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1.576886197121809</v>
@@ -932,7 +932,7 @@
         <v>-0.4759968540340831</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2144423911148882</v>
+        <v>-0.2144423911148878</v>
       </c>
     </row>
     <row r="17">
@@ -943,22 +943,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.77043889842608</v>
+        <v>-2.878895880328932</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.527981728302963</v>
+        <v>-1.627540233413731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.234765410198636</v>
+        <v>-2.139179125231408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.724071757918204</v>
+        <v>-4.454542498162947</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.040675446369659</v>
+        <v>-1.976933030495122</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.654327135773161</v>
+        <v>-1.604767308968273</v>
       </c>
     </row>
     <row r="18">
@@ -969,22 +969,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5485844094418765</v>
+        <v>0.520770158184609</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.159592202791273</v>
+        <v>2.22711825235185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.13893546521073</v>
+        <v>5.697843881714046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6531122885242123</v>
+        <v>0.640411801305522</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.195171461983215</v>
+        <v>1.248195276734028</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.451229198889041</v>
+        <v>1.322442100928002</v>
       </c>
     </row>
     <row r="19">
@@ -998,7 +998,7 @@
         <v>-0.4635306914600121</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.154204618219774</v>
+        <v>0.1542046182197739</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.4919164686989301</v>
@@ -1010,7 +1010,7 @@
         <v>-0.1852730048500426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.08346774948692953</v>
+        <v>-0.08346774948692941</v>
       </c>
     </row>
     <row r="20">
@@ -1021,22 +1021,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8601258971694113</v>
+        <v>-0.8519051220870412</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4880999033971977</v>
+        <v>-0.5210397593809855</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5974785171941963</v>
+        <v>-0.5473210180624055</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8770722899612138</v>
+        <v>-0.8321415949092428</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6181279243556563</v>
+        <v>-0.6121601691037554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4973292091416058</v>
+        <v>-0.5044613476718802</v>
       </c>
     </row>
     <row r="21">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6611685879700965</v>
+        <v>0.5095556813120377</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.50398009002999</v>
+        <v>1.648482677381495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.147268223139634</v>
+        <v>3.015262420596031</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5548057796274221</v>
+        <v>0.5014633277491339</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6763839603820643</v>
+        <v>0.7057387116649698</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.834301374134816</v>
+        <v>0.7491632101596614</v>
       </c>
     </row>
     <row r="22">
@@ -1080,7 +1080,7 @@
         <v>-0.6088659715873728</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6079907976407574</v>
+        <v>0.6079907976407577</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2440722579057027</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.532046218227224</v>
+        <v>-1.660106128030554</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3980441609435286</v>
+        <v>-0.392365101744895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.515541623410979</v>
+        <v>-1.5255168359122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.796514346553569</v>
+        <v>-1.579138334369197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.102038684523861</v>
+        <v>-1.085088562488624</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4480652603369616</v>
+        <v>-0.4831942383173402</v>
       </c>
     </row>
     <row r="24">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1169758472629357</v>
+        <v>0.06373166763083958</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.571193469630359</v>
+        <v>1.601938745101678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.81607804127635</v>
+        <v>1.830348714828617</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.035833856759454</v>
+        <v>1.153073219310175</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5640828311536523</v>
+        <v>0.5875385659782598</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.085236900456008</v>
+        <v>1.106945517909657</v>
       </c>
     </row>
     <row r="25">
@@ -1158,7 +1158,7 @@
         <v>-0.4824176154792401</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.4817241963227136</v>
+        <v>0.4817241963227139</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.1255268690709616</v>
@@ -1181,22 +1181,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8175108607793948</v>
+        <v>-0.8261492841376767</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2512019313161019</v>
+        <v>-0.2848671672179828</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5321175184873692</v>
+        <v>-0.4957578799713961</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5431180540258385</v>
+        <v>-0.5033208327895721</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5452212094553216</v>
+        <v>-0.5346426536217902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2352661214645498</v>
+        <v>-0.2460348680099991</v>
       </c>
     </row>
     <row r="27">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2417812403256001</v>
+        <v>0.2154699787804815</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.034995803883741</v>
+        <v>1.974899082122653</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.491354682343932</v>
+        <v>1.757760364413793</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9933822131763839</v>
+        <v>1.119372105878656</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5174433649279018</v>
+        <v>0.5552851252933454</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9681067199138327</v>
+        <v>1.008544967777564</v>
       </c>
     </row>
     <row r="28">
@@ -1240,7 +1240,7 @@
         <v>0.7056489788093742</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.5791252623248038</v>
+        <v>0.5791252623248034</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.3170558518209212</v>
@@ -1252,7 +1252,7 @@
         <v>0.4037591274505065</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6934271381480752</v>
+        <v>0.6934271381480756</v>
       </c>
     </row>
     <row r="29">
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3812104454821766</v>
+        <v>-0.450953122026392</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5841927508464595</v>
+        <v>-0.5203693399746416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.325782076768386</v>
+        <v>-1.34687461740902</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6073161703660036</v>
+        <v>-0.7530489160024668</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7350915594107339</v>
+        <v>-0.7102518566425288</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2658954009223116</v>
+        <v>-0.372679222329992</v>
       </c>
     </row>
     <row r="30">
@@ -1289,22 +1289,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.821652474668207</v>
+        <v>1.856109631785613</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.661139330486904</v>
+        <v>1.647225671288151</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.073949813767947</v>
+        <v>2.086962244013757</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.280773342185212</v>
+        <v>2.293846876597897</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.579190633520227</v>
+        <v>1.440621725642887</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.754876860809556</v>
+        <v>1.67963957070385</v>
       </c>
     </row>
     <row r="31">
@@ -1318,7 +1318,7 @@
         <v>0.9215375176235336</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.7563047246753667</v>
+        <v>0.7563047246753662</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.1311699843472591</v>
@@ -1330,7 +1330,7 @@
         <v>0.2302407900199183</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3954219267229686</v>
+        <v>0.3954219267229687</v>
       </c>
     </row>
     <row r="32">
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4622869840867123</v>
+        <v>-0.4871209681267297</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5373073867228992</v>
+        <v>-0.506105913954886</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4348315963091443</v>
+        <v>-0.4370423954992855</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.188659094636791</v>
+        <v>-0.2283542493837283</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.328847213459492</v>
+        <v>-0.3055359812920065</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1232083135577464</v>
+        <v>-0.1717501212410777</v>
       </c>
     </row>
     <row r="33">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>7.328550102941113</v>
+        <v>7.348430821252113</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>6.963114564398717</v>
+        <v>6.431524002322011</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.391697235867505</v>
+        <v>1.222796264833247</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.381768444252784</v>
+        <v>1.483502454008403</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.17938911820395</v>
+        <v>1.148512572633962</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.358888158627257</v>
+        <v>1.346903345214721</v>
       </c>
     </row>
     <row r="34">
@@ -1406,13 +1406,13 @@
         <v>-0.5171466131498499</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0.6124219421048658</v>
+        <v>0.6124219421048661</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.5011601987790246</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.3685503605418411</v>
+        <v>0.3685503605418408</v>
       </c>
     </row>
     <row r="35">
@@ -1423,22 +1423,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.721610659775955</v>
+        <v>-1.699714008774253</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.662330277890846</v>
+        <v>-1.662061433557033</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.585910558784055</v>
+        <v>-1.576365755244558</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.4961042914993508</v>
+        <v>-0.5606939868106109</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.359592860215105</v>
+        <v>-1.400743027986691</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.5895395063167167</v>
+        <v>-0.6042571202142545</v>
       </c>
     </row>
     <row r="36">
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.5153077008753953</v>
+        <v>0.5313197192338617</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.812449388680138</v>
+        <v>1.74534695833735</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.3579454161345235</v>
+        <v>0.3195255000025246</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.258615850233924</v>
+        <v>1.239594465331141</v>
       </c>
     </row>
     <row r="37">
@@ -1484,13 +1484,13 @@
         <v>-0.2973998079222825</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.3521905844844092</v>
+        <v>0.3521905844844094</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.3416970594043064</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2512820745668815</v>
+        <v>0.2512820745668813</v>
       </c>
     </row>
     <row r="38">
@@ -1503,16 +1503,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.6907983685518766</v>
+        <v>-0.6706962512994278</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.23807012968441</v>
+        <v>-0.2500149555797464</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6794333098326172</v>
+        <v>-0.7118843638881462</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3018117206444055</v>
+        <v>-0.3131543740415475</v>
       </c>
     </row>
     <row r="39">
@@ -1525,16 +1525,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.5463813115834446</v>
+        <v>0.4878173543928469</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.501299721454991</v>
+        <v>1.601865529364655</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4305396579724411</v>
+        <v>0.3692207860517785</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.362782024989259</v>
+        <v>1.258921425275506</v>
       </c>
     </row>
     <row r="40">
@@ -1575,22 +1575,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7305825853728845</v>
+        <v>-0.7481964974495545</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.3188937433055092</v>
+        <v>0.2177289197954843</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.7555406859196435</v>
+        <v>-0.6989918664728081</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.3351637678715887</v>
+        <v>-0.3555063892488087</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5483262334798564</v>
+        <v>-0.5693130559080438</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1032932930114642</v>
+        <v>0.1511638730264064</v>
       </c>
     </row>
     <row r="42">
@@ -1601,22 +1601,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.2388031009130881</v>
+        <v>0.2544151813667628</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.474804356570334</v>
+        <v>1.429260254770532</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7138027143135151</v>
+        <v>0.7054174268826929</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.8941663784452016</v>
+        <v>0.9076977176730842</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2945609280612683</v>
+        <v>0.3566750612878209</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.9673441139057102</v>
+        <v>0.9852018076695541</v>
       </c>
     </row>
     <row r="43">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5099090982770849</v>
+        <v>-0.5364615111531026</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2230778600349825</v>
+        <v>0.1488110493448457</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3121735038837244</v>
+        <v>-0.3052936075030846</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1403297724966103</v>
+        <v>-0.1534884202413807</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.313080457517263</v>
+        <v>-0.3078592610348004</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05098231378224292</v>
+        <v>0.0618082664884692</v>
       </c>
     </row>
     <row r="45">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3012520489835185</v>
+        <v>0.32568732077998</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.773054209713063</v>
+        <v>1.724924834361399</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4411038998180328</v>
+        <v>0.4269539084172081</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.545860042386789</v>
+        <v>0.5622241699962519</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2206070072007654</v>
+        <v>0.2547489611981194</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7090482552763303</v>
+        <v>0.713906613619035</v>
       </c>
     </row>
     <row r="46">
